--- a/trunk/TP 2/Archivos/CSV/Resultados Euler.xlsx
+++ b/trunk/TP 2/Archivos/CSV/Resultados Euler.xlsx
@@ -636,7 +636,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>

--- a/trunk/TP 2/Archivos/CSV/Resultados Euler.xlsx
+++ b/trunk/TP 2/Archivos/CSV/Resultados Euler.xlsx
@@ -334,19 +334,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tp2MetodoDeEulerValoresPaso2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tp2MetodoDeEulerValoresPaso4" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tp2MetodoDeEulerValoresPaso05" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tp2MetodoDeEulerValoresPaso1_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tp2MetodoDeEulerValoresPaso2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tp2MetodoDeEulerValoresPaso4" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -636,19 +636,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="24.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
     <col min="12" max="12" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1620,10 +1618,10 @@
         <v>12122690959.248899</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="8">
+      <c r="H33" s="12">
         <v>30</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="13">
         <v>10494651055.085899</v>
       </c>
       <c r="J33" s="1"/>
